--- a/TestKitDemo/TC01/Detail.xlsx
+++ b/TestKitDemo/TC01/Detail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\TestKitDemo\TC01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\School\NET\auto-grading\TestKitDemo\TC01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C5AB3-C32D-4422-AA69-0F47F6CD752A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0EFD50-9A2C-4855-A359-1978D13FDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
   <si>
     <t>[
   {
-    "BookId": 2,
+    "BookId": 1,
     "Title": "Harry Potter and the Philosopher\u0027s Stone",
     "PublicationYear": 1997,
     "GenreName": "Fantasy"

--- a/TestKitDemo/TC01/Detail.xlsx
+++ b/TestKitDemo/TC01/Detail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\School\NET\auto-grading\TestKitDemo\TC01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\TestKitDemo\TC01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0EFD50-9A2C-4855-A359-1978D13FDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46265AF-7E4B-4E44-AF5F-64318DFB3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
